--- a/results/evaluation-lod.xlsx
+++ b/results/evaluation-lod.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="763" activeTab="3"/>
+    <workbookView xWindow="220" yWindow="0" windowWidth="27200" windowHeight="17280" tabRatio="962"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="18" r:id="rId1"/>
@@ -1307,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2360,7 +2360,7 @@
         <v>0.09</v>
       </c>
       <c r="D2" s="15">
-        <v>0.60299999999999998</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2374,7 +2374,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D3" s="15">
-        <v>0.312</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2388,7 +2388,7 @@
         <v>0.11</v>
       </c>
       <c r="D4" s="15">
-        <v>0.14899999999999999</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2402,7 +2402,7 @@
         <v>0.06</v>
       </c>
       <c r="D5" s="15">
-        <v>0.187</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="15">
-        <v>0.16700000000000001</v>
+        <v>0.24199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2430,7 +2430,7 @@
         <v>0.06</v>
       </c>
       <c r="D7" s="15">
-        <v>0.15</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2444,7 +2444,7 @@
         <v>0.06</v>
       </c>
       <c r="D8" s="15">
-        <v>0.16</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <v>0.11799999999999999</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="15">
-        <v>0.113</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <v>0.154</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <v>9.0999999999999998E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <v>0.13</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2528,7 +2528,7 @@
         <v>0.08</v>
       </c>
       <c r="D14" s="15">
-        <v>0.14199999999999999</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <v>0.125</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2556,7 +2556,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D16" s="15">
-        <v>0.14699999999999999</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="15">
-        <v>0.13100000000000001</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2584,7 +2584,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D18" s="15">
-        <v>0.158</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2598,7 +2598,7 @@
         <v>0.11</v>
       </c>
       <c r="D19" s="15">
-        <v>0.123</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2612,7 +2612,7 @@
         <v>0.06</v>
       </c>
       <c r="D20" s="15">
-        <v>0.16</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2626,7 +2626,7 @@
         <v>0.08</v>
       </c>
       <c r="D21" s="16">
-        <v>0.14599999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2640,7 +2640,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D22" s="16">
-        <v>0.16700000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="16">
-        <v>0.155</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>0.05</v>
       </c>
       <c r="D24" s="16">
-        <v>0.154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2682,7 +2682,7 @@
         <v>0.08</v>
       </c>
       <c r="D25" s="16">
-        <v>0.13800000000000001</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2696,7 +2696,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D26" s="16">
-        <v>0.13600000000000001</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2710,7 +2710,7 @@
         <v>0.06</v>
       </c>
       <c r="D27" s="16">
-        <v>0.14299999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2724,7 +2724,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D28" s="16">
-        <v>0.122</v>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2738,7 +2738,7 @@
         <v>0.05</v>
       </c>
       <c r="D29" s="16">
-        <v>0.14599999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="16">
-        <v>9.9000000000000005E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="D31" s="18">
         <f t="shared" si="0"/>
-        <v>0.16296551724137928</v>
+        <v>0.16555172413793101</v>
       </c>
     </row>
   </sheetData>
@@ -2817,7 +2817,7 @@
         <v>0.45</v>
       </c>
       <c r="D2" s="15">
-        <v>4.05</v>
+        <v>1.3540000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2831,7 +2831,7 @@
         <v>0.73</v>
       </c>
       <c r="D3" s="15">
-        <v>3.99</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2845,7 +2845,7 @@
         <v>0.67</v>
       </c>
       <c r="D4" s="15">
-        <v>0.22700000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2859,7 +2859,7 @@
         <v>0.44</v>
       </c>
       <c r="D5" s="15">
-        <v>4.399</v>
+        <v>1.4059999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2873,7 +2873,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="15">
-        <v>2.1709999999999998</v>
+        <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2881,13 +2881,13 @@
         <v>22</v>
       </c>
       <c r="B7" s="15">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="C7" s="15">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="D7" s="15">
-        <v>2.504</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2901,7 +2901,7 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="15">
-        <v>4.1390000000000002</v>
+        <v>1.395</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2915,7 +2915,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D9" s="15">
-        <v>0.82</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2929,7 +2929,7 @@
         <v>0.8</v>
       </c>
       <c r="D10" s="15">
-        <v>0.13400000000000001</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2943,7 +2943,7 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="15">
-        <v>0.90300000000000002</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2957,7 +2957,7 @@
         <v>0.17</v>
       </c>
       <c r="D12" s="15">
-        <v>0.28699999999999998</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2971,7 +2971,7 @@
         <v>0.78</v>
       </c>
       <c r="D13" s="15">
-        <v>0.95</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2985,7 +2985,7 @@
         <v>0.69</v>
       </c>
       <c r="D14" s="15">
-        <v>2.016</v>
+        <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2999,7 +2999,7 @@
         <v>0.67</v>
       </c>
       <c r="D15" s="15">
-        <v>1.534</v>
+        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3013,7 +3013,7 @@
         <v>0.53</v>
       </c>
       <c r="D16" s="15">
-        <v>2.6259999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3027,7 +3027,7 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="15">
-        <v>1.5389999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3041,7 +3041,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="D18" s="15">
-        <v>2.0529999999999999</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3055,7 +3055,7 @@
         <v>0.67</v>
       </c>
       <c r="D19" s="15">
-        <v>0.25700000000000001</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3069,7 +3069,7 @@
         <v>0.5</v>
       </c>
       <c r="D20" s="15">
-        <v>4.7960000000000003</v>
+        <v>1.5329999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3083,7 +3083,7 @@
         <v>0.54</v>
       </c>
       <c r="D21" s="16">
-        <v>1.5620000000000001</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3097,7 +3097,7 @@
         <v>0.71</v>
       </c>
       <c r="D22" s="16">
-        <v>3.2989999999999999</v>
+        <v>1.3939999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="16">
-        <v>0.182</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3119,13 +3119,13 @@
         <v>39</v>
       </c>
       <c r="B24" s="16">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="C24" s="16">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="D24" s="16">
-        <v>2.66</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3139,7 +3139,7 @@
         <v>0.62</v>
       </c>
       <c r="D25" s="16">
-        <v>0.23200000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3153,7 +3153,7 @@
         <v>0.6</v>
       </c>
       <c r="D26" s="16">
-        <v>2.4969999999999999</v>
+        <v>1.2769999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3167,7 +3167,7 @@
         <v>0.59</v>
       </c>
       <c r="D27" s="16">
-        <v>4.8330000000000002</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3181,7 +3181,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="D28" s="16">
-        <v>2.3439999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3189,13 +3189,13 @@
         <v>44</v>
       </c>
       <c r="B29" s="16">
-        <v>0.56000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="C29" s="16">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="D29" s="16">
-        <v>5.9710000000000001</v>
+        <v>1.1519999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3209,21 +3209,21 @@
         <v>0.44</v>
       </c>
       <c r="D30" s="16">
-        <v>1.9870000000000001</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="18">
         <f>AVERAGE(B2:B30)</f>
-        <v>0.65931034482758633</v>
+        <v>0.64586206896551734</v>
       </c>
       <c r="C31" s="18">
         <f t="shared" ref="C31:D31" si="0">AVERAGE(C2:C30)</f>
-        <v>0.56275862068965521</v>
+        <v>0.54965517241379303</v>
       </c>
       <c r="D31" s="18">
         <f t="shared" si="0"/>
-        <v>2.2400689655172403</v>
+        <v>0.74637931034482741</v>
       </c>
     </row>
   </sheetData>
@@ -3240,7 +3240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -3274,7 +3276,7 @@
         <v>0.73</v>
       </c>
       <c r="D2" s="15">
-        <v>1.7390000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3288,7 +3290,7 @@
         <v>0.73</v>
       </c>
       <c r="D3" s="15">
-        <v>2.2650000000000001</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3302,7 +3304,7 @@
         <v>0.78</v>
       </c>
       <c r="D4" s="15">
-        <v>6.5000000000000002E-2</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3316,7 +3318,7 @@
         <v>0.5</v>
       </c>
       <c r="D5" s="15">
-        <v>4.1589999999999998</v>
+        <v>1.7290000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3324,13 +3326,13 @@
         <v>21</v>
       </c>
       <c r="B6" s="15">
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C6" s="15">
-        <v>0.56999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="15">
-        <v>2.5990000000000002</v>
+        <v>1.202</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3344,7 +3346,7 @@
         <v>0.61</v>
       </c>
       <c r="D7" s="15">
-        <v>0.752</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3358,7 +3360,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D8" s="15">
-        <v>4.1959999999999997</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3372,7 +3374,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D9" s="15">
-        <v>0.90800000000000003</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3386,7 +3388,7 @@
         <v>0.8</v>
       </c>
       <c r="D10" s="15">
-        <v>0.14799999999999999</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3400,7 +3402,7 @@
         <v>0.6</v>
       </c>
       <c r="D11" s="15">
-        <v>0.98399999999999999</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3408,13 +3410,13 @@
         <v>27</v>
       </c>
       <c r="B12" s="15">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C12" s="15">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="D12" s="15">
-        <v>0.60899999999999999</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3428,7 +3430,7 @@
         <v>0.89</v>
       </c>
       <c r="D13" s="15">
-        <v>0.28399999999999997</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3442,7 +3444,7 @@
         <v>0.77</v>
       </c>
       <c r="D14" s="15">
-        <v>0.85599999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3456,7 +3458,7 @@
         <v>0.67</v>
       </c>
       <c r="D15" s="15">
-        <v>1.1479999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3464,13 +3466,13 @@
         <v>31</v>
       </c>
       <c r="B16" s="15">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C16" s="15">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="D16" s="15">
-        <v>0.872</v>
+        <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3484,7 +3486,7 @@
         <v>0.88</v>
       </c>
       <c r="D17" s="15">
-        <v>0.83399999999999996</v>
+        <v>0.31900000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3498,7 +3500,7 @@
         <v>0.79</v>
       </c>
       <c r="D18" s="15">
-        <v>1.0229999999999999</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3512,7 +3514,7 @@
         <v>0.78</v>
       </c>
       <c r="D19" s="15">
-        <v>0.127</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3526,7 +3528,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D20" s="15">
-        <v>4.3140000000000001</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3534,13 +3536,13 @@
         <v>36</v>
       </c>
       <c r="B21" s="16">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="C21" s="16">
-        <v>0.54</v>
+        <v>0.77</v>
       </c>
       <c r="D21" s="16">
-        <v>0.67600000000000005</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3554,7 +3556,7 @@
         <v>0.71</v>
       </c>
       <c r="D22" s="16">
-        <v>1.008</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3568,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="16">
-        <v>0.13400000000000001</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3576,13 +3578,13 @@
         <v>39</v>
       </c>
       <c r="B24" s="16">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="C24" s="16">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="D24" s="16">
-        <v>2.5139999999999998</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3596,7 +3598,7 @@
         <v>0.85</v>
       </c>
       <c r="D25" s="16">
-        <v>5.5E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3610,7 +3612,7 @@
         <v>0.67</v>
       </c>
       <c r="D26" s="16">
-        <v>2.0510000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3624,7 +3626,7 @@
         <v>0.65</v>
       </c>
       <c r="D27" s="16">
-        <v>0.998</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3638,7 +3640,7 @@
         <v>0.79</v>
       </c>
       <c r="D28" s="16">
-        <v>0.63600000000000001</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3652,7 +3654,7 @@
         <v>0.53</v>
       </c>
       <c r="D29" s="16">
-        <v>5.3789999999999996</v>
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3666,21 +3668,21 @@
         <v>0.89</v>
       </c>
       <c r="D30" s="16">
-        <v>0.68400000000000005</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="18">
         <f>AVERAGE(B2:B30)</f>
-        <v>0.76275862068965516</v>
+        <v>0.78448275862068972</v>
       </c>
       <c r="C31" s="18">
         <f t="shared" ref="C31:D31" si="0">AVERAGE(C2:C30)</f>
-        <v>0.67724137931034489</v>
+        <v>0.69551724137931037</v>
       </c>
       <c r="D31" s="18">
         <f t="shared" si="0"/>
-        <v>1.4488620689655174</v>
+        <v>0.46472413793103445</v>
       </c>
     </row>
   </sheetData>
